--- a/MPM/需求文件/MPM预算项目导入模版.xlsx
+++ b/MPM/需求文件/MPM预算项目导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="22140" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主数据" sheetId="3" r:id="rId1"/>
@@ -764,14 +764,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -783,9 +780,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1115,8 +1109,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1128,105 +1122,105 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A1" s="8" t="s">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>2022</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1239,8 +1233,8 @@
   <sheetPr/>
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="A2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1255,121 +1249,121 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="1" customFormat="1" ht="33" spans="1:7">
+      <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MPM/需求文件/MPM预算项目导入模版.xlsx
+++ b/MPM/需求文件/MPM预算项目导入模版.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22140" windowHeight="11760" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主数据" sheetId="3" r:id="rId1"/>
     <sheet name="业务数据" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>预算项目ID</t>
   </si>
@@ -111,20 +112,143 @@
   </si>
   <si>
     <t>金额(人民币)</t>
+  </si>
+  <si>
+    <t>品类</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>消费者洞察</t>
+  </si>
+  <si>
+    <t>智屏</t>
+  </si>
+  <si>
+    <t>CBG</t>
+  </si>
+  <si>
+    <t>空调</t>
+  </si>
+  <si>
+    <t>CBG-空调</t>
+  </si>
+  <si>
+    <t>营销赞助</t>
+  </si>
+  <si>
+    <t>OBG</t>
+  </si>
+  <si>
+    <t>活动展览</t>
+  </si>
+  <si>
+    <t>洗衣机</t>
+  </si>
+  <si>
+    <t>NABG</t>
+  </si>
+  <si>
+    <t>公关传播</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>通讯</t>
+  </si>
+  <si>
+    <t>新媒体广告</t>
+  </si>
+  <si>
+    <t>SMD</t>
+  </si>
+  <si>
+    <t>雷鸟</t>
+  </si>
+  <si>
+    <t>传统广告</t>
+  </si>
+  <si>
+    <t>SCD</t>
+  </si>
+  <si>
+    <t>商用</t>
+  </si>
+  <si>
+    <t>电商平台</t>
+  </si>
+  <si>
+    <t>CloT</t>
+  </si>
+  <si>
+    <t>光伏</t>
+  </si>
+  <si>
+    <t>终端建设</t>
+  </si>
+  <si>
+    <t>音箱</t>
+  </si>
+  <si>
+    <t>线下促销</t>
+  </si>
+  <si>
+    <t>空气净化器</t>
+  </si>
+  <si>
+    <t>EUBG</t>
+  </si>
+  <si>
+    <t>商标维护</t>
+  </si>
+  <si>
+    <t>扫地机器人</t>
+  </si>
+  <si>
+    <t>MEABG</t>
+  </si>
+  <si>
+    <t>用户运营</t>
+  </si>
+  <si>
+    <t>雷鸟眼镜</t>
+  </si>
+  <si>
+    <t>泛智屏BU</t>
+  </si>
+  <si>
+    <t>商显</t>
+  </si>
+  <si>
+    <t>DIC</t>
+  </si>
+  <si>
+    <t>冰洗</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
+  <fonts count="24">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -634,153 +758,164 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1107,10 +1242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1122,107 +1257,350 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="14">
         <v>2022</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>"推广费,品牌基金"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1231,13 +1609,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A2:G3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="13.5" customWidth="1"/>
@@ -1245,125 +1623,546 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="2" customFormat="1" ht="28" customHeight="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="33" spans="1:7">
-      <c r="A3" s="4" t="s">
+    <row r="3" s="2" customFormat="1" ht="33" spans="1:7">
+      <c r="A3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="13"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="13"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="13"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="13"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
+      <formula1>Sheet1!$A$2:$A$15</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>Sheet1!$B$2:$B$13</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576">
+      <formula1>Sheet1!$C$2:$C$16</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="10.875" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MPM/需求文件/MPM预算项目导入模版.xlsx
+++ b/MPM/需求文件/MPM预算项目导入模版.xlsx
@@ -4,19 +4,34 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="主数据" sheetId="3" r:id="rId1"/>
     <sheet name="业务数据" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="消费者洞察">Sheet2!$A$21:$A$27</definedName>
+    <definedName name="创意及设计">Sheet2!$B$21:$B$27</definedName>
+    <definedName name="营销赞助">Sheet2!$C$21:$C$27</definedName>
+    <definedName name="活动展览">Sheet2!$D$21:$D$27</definedName>
+    <definedName name="公关传播">Sheet2!$E$21:$E$27</definedName>
+    <definedName name="新媒体广告">Sheet2!$F$21:$F$27</definedName>
+    <definedName name="传统广告">Sheet2!$G$21:$G$27</definedName>
+    <definedName name="电商平台">Sheet2!$H$21:$H$27</definedName>
+    <definedName name="终端建设">Sheet2!$I$21:$I$27</definedName>
+    <definedName name="线下促销">Sheet2!$J$21:$J$27</definedName>
+    <definedName name="商标维护">Sheet2!$K$21:$K$27</definedName>
+    <definedName name="用户运营">Sheet2!$L$21:$L$27</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="75">
   <si>
     <t>预算项目ID</t>
   </si>
@@ -226,6 +241,21 @@
   </si>
   <si>
     <t>冰洗</t>
+  </si>
+  <si>
+    <t>二级动因</t>
+  </si>
+  <si>
+    <t>洞察基础项目</t>
+  </si>
+  <si>
+    <t>品牌营销专项</t>
+  </si>
+  <si>
+    <t>产品全生命周期专项</t>
+  </si>
+  <si>
+    <t>其他</t>
   </si>
 </sst>
 </file>
@@ -888,9 +918,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1245,7 +1278,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1257,343 +1290,343 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="15">
         <v>2022</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" ht="16.5" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" ht="16.5" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" ht="16.5" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" ht="16.5" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" ht="16.5" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1611,8 +1644,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1623,350 +1656,350 @@
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="14.375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="3" customFormat="1" ht="28" customHeight="1" spans="1:7">
+      <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:7">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="33" spans="1:7">
-      <c r="A3" s="8" t="s">
+    <row r="3" s="3" customFormat="1" ht="33" spans="1:7">
+      <c r="A3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" ht="16.5" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
     </row>
     <row r="5" ht="16.5" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
     </row>
     <row r="6" ht="16.5" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" ht="16.5" spans="1:7">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
     </row>
     <row r="8" ht="16.5" spans="1:7">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="13"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="13"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="13"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="13"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="13"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="14"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="14"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="14"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="13"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="14"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="14"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="13"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="14"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="14"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="13"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="14"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="13"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1991,7 +2024,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="2"/>
@@ -2168,4 +2201,180 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="H22 A3:A14 A20:L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J20" t="s">
+        <v>58</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A19:L19"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/MPM/需求文件/MPM预算项目导入模版.xlsx
+++ b/MPM/需求文件/MPM预算项目导入模版.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="3"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="主数据" sheetId="3" r:id="rId1"/>
     <sheet name="业务数据" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="消费者洞察">Sheet2!$A$21:$A$27</definedName>
@@ -1278,7 +1278,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -1644,8 +1644,8 @@
   <sheetPr/>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2208,8 +2208,8 @@
   <sheetPr/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="H22 A3:A14 A20:L27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
